--- a/AAII_Financials/Quarterly/NXP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>NXP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,107 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F8" s="3">
         <v>5400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5100</v>
       </c>
       <c r="H8" s="3">
         <v>5100</v>
       </c>
       <c r="I8" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J8" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="K8" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -772,37 +785,49 @@
       <c r="K9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F10" s="3">
         <v>5100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>4700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4800</v>
       </c>
       <c r="H10" s="3">
         <v>4800</v>
       </c>
       <c r="I10" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="J10" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="K10" s="3">
         <v>4700</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +839,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,8 +870,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +905,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,8 +940,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +975,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,16 +991,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
@@ -958,7 +1011,7 @@
         <v>300</v>
       </c>
       <c r="H17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
@@ -969,37 +1022,49 @@
       <c r="K17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="3">
         <v>5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>4800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4600</v>
       </c>
       <c r="K18" s="3">
         <v>4700</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,37 +1076,45 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>5800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-5500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>9400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>7700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1069,8 +1142,14 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,37 +1177,49 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F23" s="3">
         <v>8100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>10400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>14200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>12500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1156,8 +1247,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1282,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F26" s="3">
         <v>8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>10400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>14200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>12500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F27" s="3">
         <v>8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>10400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>14200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>12500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1387,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1422,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1457,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1492,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-5800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>5500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-9400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-7700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F33" s="3">
         <v>8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>10400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>14200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>12500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1597,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F35" s="3">
         <v>8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>10400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>14200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>12500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1691,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,37 +1706,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,8 +1772,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1602,28 +1787,34 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>3100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1651,8 +1842,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1680,8 +1877,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1709,37 +1912,49 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>265900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>265900</v>
+      </c>
+      <c r="F47" s="3">
         <v>271500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>267000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>262200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>264400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>257300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>249300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>251100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>247300</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1767,8 +1982,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1796,8 +2017,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +2052,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,8 +2087,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1883,8 +2122,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2157,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>272400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>272400</v>
+      </c>
+      <c r="F54" s="3">
         <v>272500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>268300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>262300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>267500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>257800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>249900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>251900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2211,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,8 +2226,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1996,8 +2257,14 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2007,17 +2274,17 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2025,19 +2292,25 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
@@ -2049,13 +2322,19 @@
         <v>900</v>
       </c>
       <c r="J59" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="K59" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M59" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2083,16 +2362,22 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2112,8 +2397,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2141,8 +2432,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2467,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2502,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,19 +2537,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>900</v>
       </c>
       <c r="G66" s="3">
         <v>900</v>
@@ -2252,13 +2567,19 @@
         <v>900</v>
       </c>
       <c r="J66" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M66" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2591,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2622,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2657,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2692,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2727,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>40600</v>
+      </c>
+      <c r="F72" s="3">
         <v>40500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>37000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>31000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>36300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>26700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>18700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2797,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2832,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2867,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>271300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>271300</v>
+      </c>
+      <c r="F76" s="3">
         <v>271100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>267400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>261400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>266600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>256900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>249000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>250600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>255500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2937,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F81" s="3">
         <v>8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>10400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>14200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>12500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +3031,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2665,8 +3062,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +3097,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +3132,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +3167,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +3202,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,8 +3237,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2839,8 +3272,14 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,8 +3291,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2881,8 +3322,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3357,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,8 +3392,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2968,8 +3427,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3446,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3477,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3512,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3547,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,8 +3582,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3126,8 +3617,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3155,8 +3652,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3182,6 +3685,12 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>NXP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,35 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>44469</v>
+        <v>44651</v>
       </c>
       <c r="E7" s="2">
         <v>44469</v>
@@ -713,21 +714,24 @@
         <v>43555</v>
       </c>
       <c r="K7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4800</v>
+        <v>10200</v>
       </c>
       <c r="E8" s="3">
         <v>4800</v>
@@ -748,24 +752,27 @@
         <v>5100</v>
       </c>
       <c r="K8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E9" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -791,16 +798,19 @@
       <c r="M9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4300</v>
+        <v>9600</v>
       </c>
       <c r="E10" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="F10" s="3">
         <v>5100</v>
@@ -818,16 +828,19 @@
         <v>4800</v>
       </c>
       <c r="K10" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L10" s="3">
         <v>4700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,8 +854,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,8 +890,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,8 +928,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -946,8 +966,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1004,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,13 +1019,14 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>1800</v>
@@ -1028,13 +1055,16 @@
       <c r="M17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3000</v>
+        <v>9500</v>
       </c>
       <c r="E18" s="3">
         <v>3000</v>
@@ -1055,16 +1085,19 @@
         <v>4800</v>
       </c>
       <c r="K18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L18" s="3">
         <v>4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,13 +1111,14 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1600</v>
+        <v>-58300</v>
       </c>
       <c r="E20" s="3">
         <v>1600</v>
@@ -1105,16 +1139,19 @@
         <v>7700</v>
       </c>
       <c r="K20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1148,8 +1185,11 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1183,13 +1223,16 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4600</v>
+        <v>-48700</v>
       </c>
       <c r="E23" s="3">
         <v>4600</v>
@@ -1210,16 +1253,19 @@
         <v>12500</v>
       </c>
       <c r="K23" s="3">
+        <v>12500</v>
+      </c>
+      <c r="L23" s="3">
         <v>3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1253,8 +1299,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,13 +1337,16 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4600</v>
+        <v>-48700</v>
       </c>
       <c r="E26" s="3">
         <v>4600</v>
@@ -1315,21 +1367,24 @@
         <v>12500</v>
       </c>
       <c r="K26" s="3">
+        <v>12500</v>
+      </c>
+      <c r="L26" s="3">
         <v>3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4600</v>
+        <v>-48700</v>
       </c>
       <c r="E27" s="3">
         <v>4600</v>
@@ -1350,16 +1405,19 @@
         <v>12500</v>
       </c>
       <c r="K27" s="3">
+        <v>12500</v>
+      </c>
+      <c r="L27" s="3">
         <v>3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1451,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,8 +1489,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,13 +1565,16 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1600</v>
+        <v>58300</v>
       </c>
       <c r="E32" s="3">
         <v>-1600</v>
@@ -1525,21 +1595,24 @@
         <v>-7700</v>
       </c>
       <c r="K32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4600</v>
+        <v>-48700</v>
       </c>
       <c r="E33" s="3">
         <v>4600</v>
@@ -1560,16 +1633,19 @@
         <v>12500</v>
       </c>
       <c r="K33" s="3">
+        <v>12500</v>
+      </c>
+      <c r="L33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,13 +1679,16 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4600</v>
+        <v>-48700</v>
       </c>
       <c r="E35" s="3">
         <v>4600</v>
@@ -1630,26 +1709,29 @@
         <v>12500</v>
       </c>
       <c r="K35" s="3">
+        <v>12500</v>
+      </c>
+      <c r="L35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
-        <v>44469</v>
+        <v>44651</v>
       </c>
       <c r="E38" s="2">
         <v>44469</v>
@@ -1670,16 +1752,19 @@
         <v>43555</v>
       </c>
       <c r="K38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,13 +1794,14 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6400</v>
+        <v>1300</v>
       </c>
       <c r="E41" s="3">
         <v>6400</v>
@@ -1735,16 +1822,19 @@
         <v>500</v>
       </c>
       <c r="K41" s="3">
+        <v>500</v>
+      </c>
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,13 +1868,16 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1811,10 +1904,13 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1848,8 +1944,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1883,8 +1982,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1918,13 +2020,16 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>265900</v>
+        <v>706700</v>
       </c>
       <c r="E47" s="3">
         <v>265900</v>
@@ -1945,16 +2050,19 @@
         <v>257300</v>
       </c>
       <c r="K47" s="3">
+        <v>257300</v>
+      </c>
+      <c r="L47" s="3">
         <v>249300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>251100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>247300</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1988,8 +2096,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2023,8 +2134,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,8 +2210,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2128,8 +2248,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,13 +2286,16 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>272400</v>
+        <v>710800</v>
       </c>
       <c r="E54" s="3">
         <v>272400</v>
@@ -2190,16 +2316,19 @@
         <v>257800</v>
       </c>
       <c r="K54" s="3">
+        <v>257800</v>
+      </c>
+      <c r="L54" s="3">
         <v>249900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>251900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,8 +2358,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2263,8 +2394,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2289,22 +2423,25 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="E59" s="3">
         <v>1900</v>
@@ -2328,13 +2465,16 @@
         <v>900</v>
       </c>
       <c r="L59" s="3">
+        <v>900</v>
+      </c>
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2368,13 +2508,16 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>1000</v>
@@ -2403,8 +2546,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2438,8 +2584,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,13 +2698,16 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="E66" s="3">
         <v>1200</v>
@@ -2573,13 +2731,16 @@
         <v>900</v>
       </c>
       <c r="L66" s="3">
+        <v>900</v>
+      </c>
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,13 +2904,16 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40600</v>
+        <v>52700</v>
       </c>
       <c r="E72" s="3">
         <v>40600</v>
@@ -2760,16 +2934,19 @@
         <v>26700</v>
       </c>
       <c r="K72" s="3">
+        <v>26700</v>
+      </c>
+      <c r="L72" s="3">
         <v>18700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,13 +3056,16 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>271300</v>
+        <v>708200</v>
       </c>
       <c r="E76" s="3">
         <v>271300</v>
@@ -2900,16 +3086,19 @@
         <v>256900</v>
       </c>
       <c r="K76" s="3">
+        <v>256900</v>
+      </c>
+      <c r="L76" s="3">
         <v>249000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>250600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>255500</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,18 +3132,21 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
-        <v>44469</v>
+        <v>44651</v>
       </c>
       <c r="E80" s="2">
         <v>44469</v>
@@ -2975,21 +3167,24 @@
         <v>43555</v>
       </c>
       <c r="K80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4600</v>
+        <v>-48700</v>
       </c>
       <c r="E81" s="3">
         <v>4600</v>
@@ -3010,16 +3205,19 @@
         <v>12500</v>
       </c>
       <c r="K81" s="3">
+        <v>12500</v>
+      </c>
+      <c r="L81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,8 +3231,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3068,8 +3267,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,8 +3457,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3278,8 +3495,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,8 +3513,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3328,8 +3549,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,8 +3625,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3433,8 +3663,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3717,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,8 +3831,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3623,8 +3869,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3658,8 +3907,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3691,6 +3943,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>NXP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
-      </c>
-      <c r="J7" s="2">
-        <v>43555</v>
       </c>
       <c r="K7" s="2">
         <v>43555</v>
       </c>
       <c r="L7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E8" s="3">
         <v>10200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5100</v>
       </c>
       <c r="I8" s="3">
         <v>5100</v>
@@ -755,24 +759,27 @@
         <v>5100</v>
       </c>
       <c r="L8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -801,25 +808,28 @@
       <c r="N9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E10" s="3">
         <v>9600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4800</v>
       </c>
       <c r="I10" s="3">
         <v>4800</v>
@@ -831,16 +841,19 @@
         <v>4800</v>
       </c>
       <c r="L10" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M10" s="3">
         <v>4700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,20 +948,23 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -957,8 +977,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -969,8 +989,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,28 +1046,29 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
@@ -1058,28 +1085,31 @@
       <c r="N17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="3">
         <v>9500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4700</v>
       </c>
       <c r="H18" s="3">
         <v>4700</v>
       </c>
       <c r="I18" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J18" s="3">
         <v>4800</v>
@@ -1088,16 +1118,19 @@
         <v>4800</v>
       </c>
       <c r="L18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M18" s="3">
         <v>4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,46 +1145,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-58300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>7700</v>
       </c>
       <c r="K20" s="3">
         <v>7700</v>
       </c>
       <c r="L20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1188,8 +1225,11 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1226,46 +1266,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-48700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>12500</v>
       </c>
       <c r="K23" s="3">
         <v>12500</v>
       </c>
       <c r="L23" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M23" s="3">
         <v>3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1302,8 +1348,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-48700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>12500</v>
       </c>
       <c r="K26" s="3">
         <v>12500</v>
       </c>
       <c r="L26" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M26" s="3">
         <v>3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-48700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>12500</v>
       </c>
       <c r="K27" s="3">
         <v>12500</v>
       </c>
       <c r="L27" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M27" s="3">
         <v>3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1635,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E32" s="3">
         <v>58300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-7700</v>
       </c>
       <c r="K32" s="3">
         <v>-7700</v>
       </c>
       <c r="L32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-48700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>12500</v>
       </c>
       <c r="K33" s="3">
         <v>12500</v>
       </c>
       <c r="L33" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M33" s="3">
         <v>3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-48700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>12500</v>
       </c>
       <c r="K35" s="3">
         <v>12500</v>
       </c>
       <c r="L35" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M35" s="3">
         <v>3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
-      </c>
-      <c r="J38" s="2">
-        <v>43555</v>
       </c>
       <c r="K38" s="2">
         <v>43555</v>
       </c>
       <c r="L38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,46 +1881,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
       </c>
       <c r="L41" s="3">
+        <v>500</v>
+      </c>
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,32 +1961,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>3100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -1907,10 +2000,13 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1947,8 +2043,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1985,31 +2084,34 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2023,46 +2125,52 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>648200</v>
+      </c>
+      <c r="E47" s="3">
         <v>706700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>265900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>271500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>267000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>262200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>264400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>257300</v>
       </c>
       <c r="K47" s="3">
         <v>257300</v>
       </c>
       <c r="L47" s="3">
+        <v>257300</v>
+      </c>
+      <c r="M47" s="3">
         <v>249300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>251100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>247300</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2099,8 +2207,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,8 +2330,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2251,8 +2371,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>655900</v>
+      </c>
+      <c r="E54" s="3">
         <v>710800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>272400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>272500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>268300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>262300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>267500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>257800</v>
       </c>
       <c r="K54" s="3">
         <v>257800</v>
       </c>
       <c r="L54" s="3">
+        <v>257800</v>
+      </c>
+      <c r="M54" s="3">
         <v>249900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>251900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,8 +2489,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2397,8 +2528,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2414,43 +2548,46 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>900</v>
       </c>
       <c r="H59" s="3">
         <v>900</v>
@@ -2468,13 +2605,16 @@
         <v>900</v>
       </c>
       <c r="M59" s="3">
+        <v>900</v>
+      </c>
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2511,19 +2651,22 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2549,8 +2692,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,22 +2856,25 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
-        <v>1200</v>
-      </c>
       <c r="F66" s="3">
+        <v>41600</v>
+      </c>
+      <c r="G66" s="3">
         <v>1400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>900</v>
       </c>
       <c r="H66" s="3">
         <v>900</v>
@@ -2734,13 +2892,16 @@
         <v>900</v>
       </c>
       <c r="M66" s="3">
+        <v>900</v>
+      </c>
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E72" s="3">
         <v>52700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>40600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>40500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>37000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>31000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>36300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>26700</v>
       </c>
       <c r="K72" s="3">
         <v>26700</v>
       </c>
       <c r="L72" s="3">
+        <v>26700</v>
+      </c>
+      <c r="M72" s="3">
         <v>18700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>647300</v>
+      </c>
+      <c r="E76" s="3">
         <v>708200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>271300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>271100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>267400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>261400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>266600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>256900</v>
       </c>
       <c r="K76" s="3">
         <v>256900</v>
       </c>
       <c r="L76" s="3">
+        <v>256900</v>
+      </c>
+      <c r="M76" s="3">
         <v>249000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>250600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>255500</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
-      </c>
-      <c r="J80" s="2">
-        <v>43555</v>
       </c>
       <c r="K80" s="2">
         <v>43555</v>
       </c>
       <c r="L80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-48700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>12500</v>
       </c>
       <c r="K81" s="3">
         <v>12500</v>
       </c>
       <c r="L81" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M81" s="3">
         <v>3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3270,8 +3469,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,8 +3674,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3498,8 +3715,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,8 +3734,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3552,8 +3773,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,8 +3855,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3666,8 +3896,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,8 +4077,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3872,8 +4118,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3910,8 +4159,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3946,6 +4198,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>NXP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
-      </c>
-      <c r="K7" s="2">
-        <v>43555</v>
       </c>
       <c r="L7" s="2">
         <v>43555</v>
       </c>
       <c r="M7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E8" s="3">
         <v>10900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5100</v>
       </c>
       <c r="J8" s="3">
         <v>5100</v>
@@ -762,16 +766,19 @@
         <v>5100</v>
       </c>
       <c r="M8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,10 +786,10 @@
         <v>700</v>
       </c>
       <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
@@ -811,28 +818,31 @@
       <c r="O9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E10" s="3">
         <v>10200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>4800</v>
       </c>
       <c r="J10" s="3">
         <v>4800</v>
@@ -844,16 +854,19 @@
         <v>4800</v>
       </c>
       <c r="M10" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N10" s="3">
         <v>4700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +882,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +924,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,22 +968,25 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -980,8 +1000,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -992,8 +1012,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1056,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,31 +1073,32 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
-        <v>1800</v>
-      </c>
       <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
@@ -1088,31 +1115,34 @@
       <c r="O17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E18" s="3">
         <v>10000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9500</v>
       </c>
-      <c r="F18" s="3">
-        <v>3000</v>
-      </c>
       <c r="G18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H18" s="3">
         <v>5000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4700</v>
       </c>
       <c r="I18" s="3">
         <v>4700</v>
       </c>
       <c r="J18" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="K18" s="3">
         <v>4800</v>
@@ -1121,16 +1151,19 @@
         <v>4800</v>
       </c>
       <c r="M18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N18" s="3">
         <v>4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,49 +1179,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-58200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-58300</v>
       </c>
-      <c r="F20" s="3">
-        <v>1600</v>
-      </c>
       <c r="G20" s="3">
+        <v>400</v>
+      </c>
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>7700</v>
       </c>
       <c r="L20" s="3">
         <v>7700</v>
       </c>
       <c r="M20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1228,8 +1265,11 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1269,49 +1309,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-48200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-48700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>12500</v>
       </c>
       <c r="L23" s="3">
         <v>12500</v>
       </c>
       <c r="M23" s="3">
+        <v>12500</v>
+      </c>
+      <c r="N23" s="3">
         <v>3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1351,8 +1397,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-48200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-48700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>12500</v>
       </c>
       <c r="L26" s="3">
         <v>12500</v>
       </c>
       <c r="M26" s="3">
+        <v>12500</v>
+      </c>
+      <c r="N26" s="3">
         <v>3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-48200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-48700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>12500</v>
       </c>
       <c r="L27" s="3">
         <v>12500</v>
       </c>
       <c r="M27" s="3">
+        <v>12500</v>
+      </c>
+      <c r="N27" s="3">
         <v>3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1617,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,90 +1705,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E32" s="3">
         <v>58200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>58300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-7700</v>
       </c>
       <c r="L32" s="3">
         <v>-7700</v>
       </c>
       <c r="M32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-48200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-48700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>12500</v>
       </c>
       <c r="L33" s="3">
         <v>12500</v>
       </c>
       <c r="M33" s="3">
+        <v>12500</v>
+      </c>
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-48200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-48700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>12500</v>
       </c>
       <c r="L35" s="3">
         <v>12500</v>
       </c>
       <c r="M35" s="3">
+        <v>12500</v>
+      </c>
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
-      </c>
-      <c r="K38" s="2">
-        <v>43555</v>
       </c>
       <c r="L38" s="2">
         <v>43555</v>
       </c>
       <c r="M38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,8 +1968,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1891,40 +1978,43 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
       <c r="M41" s="3">
+        <v>500</v>
+      </c>
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,35 +2054,38 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>7400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6400</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2003,10 +2096,13 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2046,8 +2142,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2087,8 +2186,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2098,12 +2200,12 @@
       <c r="E46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2113,8 +2215,8 @@
       <c r="J46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
+      <c r="K46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2128,49 +2230,55 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>684300</v>
+      </c>
+      <c r="E47" s="3">
         <v>648200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>706700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>265900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>271500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>267000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>262200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>264400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>257300</v>
       </c>
       <c r="L47" s="3">
         <v>257300</v>
       </c>
       <c r="M47" s="3">
+        <v>257300</v>
+      </c>
+      <c r="N47" s="3">
         <v>249300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>251100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>247300</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2210,8 +2318,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2251,8 +2362,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,8 +2450,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2374,8 +2494,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>684700</v>
+      </c>
+      <c r="E54" s="3">
         <v>655900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>710800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>272400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>272500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>268300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>262300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>267500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>257800</v>
       </c>
       <c r="L54" s="3">
         <v>257800</v>
       </c>
       <c r="M54" s="3">
+        <v>257800</v>
+      </c>
+      <c r="N54" s="3">
         <v>249900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>251900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,8 +2620,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2531,8 +2662,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2551,46 +2685,49 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>7600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
-        <v>1900</v>
-      </c>
       <c r="G59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H59" s="3">
         <v>1400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>900</v>
       </c>
       <c r="I59" s="3">
         <v>900</v>
@@ -2608,36 +2745,39 @@
         <v>900</v>
       </c>
       <c r="N59" s="3">
+        <v>900</v>
+      </c>
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -2654,22 +2794,25 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>271100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2695,8 +2838,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2736,8 +2882,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,25 +3014,28 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>8700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
-        <v>41600</v>
-      </c>
       <c r="G66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="3">
         <v>1400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>900</v>
       </c>
       <c r="I66" s="3">
         <v>900</v>
@@ -2895,13 +3053,16 @@
         <v>900</v>
       </c>
       <c r="N66" s="3">
+        <v>900</v>
+      </c>
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>52700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>40600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>40500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>37000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>31000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>36300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>26700</v>
       </c>
       <c r="L72" s="3">
         <v>26700</v>
       </c>
       <c r="M72" s="3">
+        <v>26700</v>
+      </c>
+      <c r="N72" s="3">
         <v>18700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>682100</v>
+      </c>
+      <c r="E76" s="3">
         <v>647300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>708200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>271300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>271100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>267400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>261400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>266600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>256900</v>
       </c>
       <c r="L76" s="3">
         <v>256900</v>
       </c>
       <c r="M76" s="3">
+        <v>256900</v>
+      </c>
+      <c r="N76" s="3">
         <v>249000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>250600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>255500</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
-      </c>
-      <c r="K80" s="2">
-        <v>43555</v>
       </c>
       <c r="L80" s="2">
         <v>43555</v>
       </c>
       <c r="M80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-48200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-48700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>12500</v>
       </c>
       <c r="L81" s="3">
         <v>12500</v>
       </c>
       <c r="M81" s="3">
+        <v>12500</v>
+      </c>
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3629,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3472,8 +3671,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,8 +3891,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3718,8 +3935,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,8 +3955,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3776,8 +3997,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,8 +4085,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3899,8 +4129,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,8 +4323,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4121,8 +4367,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4162,8 +4411,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4201,6 +4453,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>
